--- a/Analysis/Excel/Summary2.xlsx
+++ b/Analysis/Excel/Summary2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
   <si>
     <t xml:space="preserve">Rank</t>
   </si>
@@ -102,6 +102,12 @@
     <t xml:space="preserve">Idle Task</t>
   </si>
   <si>
+    <t xml:space="preserve">Usando load by worked time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soma de todas as ações de cada usuário</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task 1</t>
   </si>
   <si>
@@ -151,12 +157,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -215,8 +221,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,7 +322,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -496,11 +506,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="26120939"/>
-        <c:axId val="72064813"/>
+        <c:axId val="20584662"/>
+        <c:axId val="57955587"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26120939"/>
+        <c:axId val="20584662"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,14 +545,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72064813"/>
+        <c:crossAx val="57955587"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72064813"/>
+        <c:axId val="57955587"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +596,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26120939"/>
+        <c:crossAx val="20584662"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -623,7 +633,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -656,21 +666,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$D$20,Sheet1!$K$22:$K$22,Sheet1!$R$23:$R$23,Sheet1!$Y$22:$Y$22</c:f>
+              <c:f>Sheet1!$B$15:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>138.4106</c:v>
+                  <c:v>44.601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.5052666666667</c:v>
+                  <c:v>86.2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.7079</c:v>
+                  <c:v>37.2235000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126.62708</c:v>
+                  <c:v>71.4288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.6565000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,21 +712,116 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$20:$E$20,Sheet1!$L$22:$L$22,Sheet1!$S$23:$S$23,Sheet1!$Z$22:$Z$22</c:f>
+              <c:f>Sheet1!$C$15:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>114.72774</c:v>
+                  <c:v>27.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.5754</c:v>
+                  <c:v>26.6007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.8417166666667</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.389788</c:v>
+                  <c:v>55.8885</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.4964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44.506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129.5357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.7602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281.5956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105.6555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>56.699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.6564999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.4430000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225.2061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139.6341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,11 +829,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="4798839"/>
-        <c:axId val="38948567"/>
+        <c:axId val="77574131"/>
+        <c:axId val="18573119"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="4798839"/>
+        <c:axId val="77574131"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,14 +868,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38948567"/>
+        <c:crossAx val="18573119"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38948567"/>
+        <c:axId val="18573119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +919,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4798839"/>
+        <c:crossAx val="77574131"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -848,7 +956,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -881,21 +989,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$B$20,Sheet1!$I$22:$I$22,Sheet1!$P$23:$P$23,Sheet1!$W$22:$W$22</c:f>
+              <c:f>Sheet1!$B$26:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>54.43592</c:v>
+                  <c:v>4.2803805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.0105816666667</c:v>
+                  <c:v>3.86967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.6572816666667</c:v>
+                  <c:v>1.317529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.771058</c:v>
+                  <c:v>4.0249215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4561235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,21 +1035,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$20,Sheet1!$J$22:$J$22,Sheet1!$Q$23:$Q$23,Sheet1!$X$22:$X$22</c:f>
+              <c:f>Sheet1!$C$26:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>36.84312</c:v>
+                  <c:v>16.95301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.4797633333333</c:v>
+                  <c:v>6.642847</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.8534166666667</c:v>
+                  <c:v>9.220284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.499086</c:v>
+                  <c:v>8.576299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.002918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,21 +1081,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$D$20,Sheet1!$K$22:$K$22,Sheet1!$R$23:$R$23,Sheet1!$Y$22:$Y$22</c:f>
+              <c:f>Sheet1!$D$26:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>138.4106</c:v>
+                  <c:v>9.070060125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.5052666666667</c:v>
+                  <c:v>7.381541125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.7079</c:v>
+                  <c:v>6.553977625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126.62708</c:v>
+                  <c:v>3.3415055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.648324125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,21 +1127,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$20:$E$20,Sheet1!$L$22:$L$22,Sheet1!$S$23:$S$23,Sheet1!$Z$22:$Z$22</c:f>
+              <c:f>Sheet1!$E$26:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>114.72774</c:v>
+                  <c:v>8.529818625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.5754</c:v>
+                  <c:v>5.70552475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.8417166666667</c:v>
+                  <c:v>5.216207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.389788</c:v>
+                  <c:v>3.299659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.455383125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,11 +1152,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="91809292"/>
-        <c:axId val="83200970"/>
+        <c:axId val="37602148"/>
+        <c:axId val="4483019"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91809292"/>
+        <c:axId val="37602148"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,14 +1191,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83200970"/>
+        <c:crossAx val="4483019"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83200970"/>
+        <c:axId val="4483019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1242,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91809292"/>
+        <c:crossAx val="37602148"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1159,7 +1279,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1167,7 +1287,7 @@
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1182,7 +1302,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1192,21 +1312,21 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$D$20,Sheet1!$K$22:$K$22,Sheet1!$R$23:$R$23,Sheet1!$Y$22:$Y$22</c:f>
+              <c:f>Sheet1!$B$31:$B$31,Sheet1!$I$33:$I$33,Sheet1!$P$33:$P$33,Sheet1!$W$30:$W$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>138.4106</c:v>
+                  <c:v>3.5897249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.5052666666667</c:v>
+                  <c:v>2.6150865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.7079</c:v>
+                  <c:v>1.88383316666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126.62708</c:v>
+                  <c:v>2.0465585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,7 +1345,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1235,21 +1355,107 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$20:$E$20,Sheet1!$L$22:$L$22,Sheet1!$S$23:$S$23,Sheet1!$Z$22:$Z$22</c:f>
+              <c:f>Sheet1!$C$31:$C$31,Sheet1!$J$33:$J$33,Sheet1!$Q$33:$Q$33,Sheet1!$X$30:$X$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>114.72774</c:v>
+                  <c:v>10.0790716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.5754</c:v>
+                  <c:v>7.175025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.8417166666667</c:v>
+                  <c:v>4.532124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.389788</c:v>
+                  <c:v>2.979571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$D$31,Sheet1!$K$33:$K$33,Sheet1!$R$33:$R$33,Sheet1!$Y$30:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.7990817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.77276280416667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.66681937291667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3768976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$31:$E$31,Sheet1!$L$33:$L$33,Sheet1!$S$33:$S$33,Sheet1!$Z$30:$Z$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.2413185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.30935628333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.92098708125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.918038625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,11 +1463,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="16050645"/>
-        <c:axId val="36887470"/>
+        <c:axId val="11442503"/>
+        <c:axId val="24664341"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="16050645"/>
+        <c:axId val="11442503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,14 +1502,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36887470"/>
+        <c:crossAx val="24664341"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36887470"/>
+        <c:axId val="24664341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1553,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16050645"/>
+        <c:crossAx val="11442503"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1384,7 +1590,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1392,7 +1598,7 @@
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1407,7 +1613,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1417,21 +1623,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$B$31,Sheet1!$I$33:$I$33,Sheet1!$P$33:$P$33,Sheet1!$W$30:$W$30</c:f>
+              <c:f>Sheet1!$W$16:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.5897249</c:v>
+                  <c:v>47.198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6150865</c:v>
+                  <c:v>22.00295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.88383316666667</c:v>
+                  <c:v>21.09751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0465585</c:v>
+                  <c:v>54.20073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.3561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,7 +1659,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1460,21 +1669,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$C$31,Sheet1!$J$33:$J$33,Sheet1!$Q$33:$Q$33,Sheet1!$X$30:$X$30</c:f>
+              <c:f>Sheet1!$X$16:$X$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.0790716</c:v>
+                  <c:v>21.408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.175025</c:v>
+                  <c:v>16.251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.532124</c:v>
+                  <c:v>16.95763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.979571</c:v>
+                  <c:v>37.1223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.7565000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,7 +1705,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1503,21 +1715,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$31:$D$31,Sheet1!$K$33:$K$33,Sheet1!$R$33:$R$33,Sheet1!$Y$30:$Y$30</c:f>
+              <c:f>Sheet1!$Y$16:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.7990817</c:v>
+                  <c:v>162.962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.77276280416667</c:v>
+                  <c:v>74.4534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.66681937291667</c:v>
+                  <c:v>56.4048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3768976</c:v>
+                  <c:v>127.1752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,7 +1751,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1546,21 +1761,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$31:$E$31,Sheet1!$L$33:$L$33,Sheet1!$S$33:$S$33,Sheet1!$Z$30:$Z$30</c:f>
+              <c:f>Sheet1!$Z$16:$Z$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.2413185</c:v>
+                  <c:v>87.06737</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.30935628333333</c:v>
+                  <c:v>71.80547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.92098708125</c:v>
+                  <c:v>63.9076</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.918038625</c:v>
+                  <c:v>60.7675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,11 +1786,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="35949501"/>
-        <c:axId val="78474054"/>
+        <c:axId val="77717579"/>
+        <c:axId val="34647653"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="35949501"/>
+        <c:axId val="77717579"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,14 +1825,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78474054"/>
+        <c:crossAx val="34647653"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78474054"/>
+        <c:axId val="34647653"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1876,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35949501"/>
+        <c:crossAx val="77717579"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1695,7 +1913,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1728,27 +1946,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$17:$P$22</c:f>
+              <c:f>Sheet1!$W$26:$W$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>58.66863</c:v>
+                  <c:v>1.554914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.0093</c:v>
+                  <c:v>1.4022025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.213</c:v>
+                  <c:v>3.1454575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.4411</c:v>
+                  <c:v>1.623129</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.20286</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.4088</c:v>
+                  <c:v>2.0465585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,27 +1992,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$17:$Q$22</c:f>
+              <c:f>Sheet1!$X$26:$X$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.3988</c:v>
+                  <c:v>3.538198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.1603</c:v>
+                  <c:v>4.50141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.4135</c:v>
+                  <c:v>6.065219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.1868</c:v>
+                  <c:v>2.768127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42.2601</c:v>
+                  <c:v>2.979571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1826,27 +2038,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$17:$R$22</c:f>
+              <c:f>Sheet1!$Y$26:$Y$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>127.2309</c:v>
+                  <c:v>2.38996525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.6714</c:v>
+                  <c:v>3.33753925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.8215</c:v>
+                  <c:v>3.023767</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.8132</c:v>
+                  <c:v>1.7761807375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>283.4138</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.2966</c:v>
+                  <c:v>2.3768976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,27 +2084,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$17:$S$22</c:f>
+              <c:f>Sheet1!$Z$26:$Z$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>82.5638</c:v>
+                  <c:v>2.11079225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.1117</c:v>
+                  <c:v>2.2889878875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.2902</c:v>
+                  <c:v>3.2575605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.2443</c:v>
+                  <c:v>1.903549325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.724</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.1163</c:v>
+                  <c:v>1.918038625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,11 +2109,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="44608903"/>
-        <c:axId val="38347507"/>
+        <c:axId val="95069783"/>
+        <c:axId val="7180924"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44608903"/>
+        <c:axId val="95069783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,14 +2148,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38347507"/>
+        <c:crossAx val="7180924"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38347507"/>
+        <c:axId val="7180924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +2199,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44608903"/>
+        <c:crossAx val="95069783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2030,7 +2236,1414 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$20,Sheet1!$K$22:$K$22,Sheet1!$R$23:$R$23,Sheet1!$Y$22:$Y$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>138.4106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.5052666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.7079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.62708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$20,Sheet1!$L$22:$L$22,Sheet1!$S$23:$S$23,Sheet1!$Z$22:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>114.72774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.5754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.8417166666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.389788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="92418343"/>
+        <c:axId val="11163233"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="92418343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11163233"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11163233"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92418343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$20,Sheet1!$I$22:$I$22,Sheet1!$P$23:$P$23,Sheet1!$W$22:$W$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>54.43592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.0105816666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.6572816666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.771058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$20,Sheet1!$J$22:$J$22,Sheet1!$Q$23:$Q$23,Sheet1!$X$22:$X$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>36.84312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.4797633333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.8534166666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.499086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$20,Sheet1!$K$22:$K$22,Sheet1!$R$23:$R$23,Sheet1!$Y$22:$Y$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>138.4106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.5052666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.7079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.62708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$20,Sheet1!$L$22:$L$22,Sheet1!$S$23:$S$23,Sheet1!$Z$22:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>114.72774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.5754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.8417166666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.389788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="72218803"/>
+        <c:axId val="16450965"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="72218803"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16450965"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="16450965"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72218803"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$20,Sheet1!$K$22:$K$22,Sheet1!$R$23:$R$23,Sheet1!$Y$22:$Y$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>138.4106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.5052666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.7079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.62708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$20,Sheet1!$L$22:$L$22,Sheet1!$S$23:$S$23,Sheet1!$Z$22:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>114.72774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.5754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.8417166666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.389788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="80758637"/>
+        <c:axId val="27364517"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80758637"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27364517"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27364517"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80758637"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$B$31,Sheet1!$I$33:$I$33,Sheet1!$P$33:$P$33,Sheet1!$W$30:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5897249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6150865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.88383316666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0465585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$31,Sheet1!$J$33:$J$33,Sheet1!$Q$33:$Q$33,Sheet1!$X$30:$X$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.0790716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.175025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.532124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.979571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$D$31,Sheet1!$K$33:$K$33,Sheet1!$R$33:$R$33,Sheet1!$Y$30:$Y$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.7990817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.77276280416667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.66681937291667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3768976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$31:$E$31,Sheet1!$L$33:$L$33,Sheet1!$S$33:$S$33,Sheet1!$Z$30:$Z$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.2413185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.30935628333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.92098708125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.918038625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="84702575"/>
+        <c:axId val="2252584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84702575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2252584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2252584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84702575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$17:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>58.66863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.0093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.4411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.20286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.4088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$17:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.3988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.1603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.4135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.1868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.2601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$17:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>127.2309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.6714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.8215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.8132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>283.4138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.2966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$17:$S$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>82.5638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.1117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.2902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.2443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192.724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.1163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="98156477"/>
+        <c:axId val="51399181"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="98156477"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51399181"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51399181"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98156477"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2238,11 +3851,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="49302891"/>
-        <c:axId val="82555190"/>
+        <c:axId val="66515288"/>
+        <c:axId val="55190275"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49302891"/>
+        <c:axId val="66515288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,14 +3890,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82555190"/>
+        <c:crossAx val="55190275"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82555190"/>
+        <c:axId val="55190275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -2329,7 +3942,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49302891"/>
+        <c:crossAx val="66515288"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2366,7 +3979,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2574,11 +4187,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="44339514"/>
-        <c:axId val="88410521"/>
+        <c:axId val="49546758"/>
+        <c:axId val="74084766"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44339514"/>
+        <c:axId val="49546758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,14 +4226,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88410521"/>
+        <c:crossAx val="74084766"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88410521"/>
+        <c:axId val="74084766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -2665,7 +4278,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44339514"/>
+        <c:crossAx val="49546758"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2702,7 +4315,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2910,11 +4523,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="30897443"/>
-        <c:axId val="69238749"/>
+        <c:axId val="96691634"/>
+        <c:axId val="6744862"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30897443"/>
+        <c:axId val="96691634"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,14 +4562,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69238749"/>
+        <c:crossAx val="6744862"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69238749"/>
+        <c:axId val="6744862"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -3001,1603 +4614,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30897443"/>
+        <c:crossAx val="96691634"/>
         <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$15:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>44.601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>86.2698</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.2235000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.4288</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.6565000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$15:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>27.73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.6007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55.8885</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41.4964</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$15:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>44.506</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>129.5357</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130.7602</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>281.5956</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>105.6555</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$15:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>56.699</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.6564999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.4430000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>225.2061</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>139.6341</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="62187824"/>
-        <c:axId val="40558842"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="62187824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="40558842"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="40558842"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="62187824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$26:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.2803805</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.86967</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.317529</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0249215</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.4561235</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$26:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>16.95301</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.642847</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.220284</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.576299</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.002918</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$26:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.070060125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.381541125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.553977625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3415055</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.648324125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$26:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.529818625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.70552475</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.216207</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.299659</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.455383125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="90223503"/>
-        <c:axId val="96195196"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="90223503"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="96195196"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="96195196"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="90223503"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$31:$B$31,Sheet1!$I$33:$I$33,Sheet1!$P$33:$P$33,Sheet1!$W$30:$W$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.5897249</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6150865</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.88383316666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0465585</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$31:$C$31,Sheet1!$J$33:$J$33,Sheet1!$Q$33:$Q$33,Sheet1!$X$30:$X$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10.0790716</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.175025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.532124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.979571</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$31:$D$31,Sheet1!$K$33:$K$33,Sheet1!$R$33:$R$33,Sheet1!$Y$30:$Y$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.7990817</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.77276280416667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.66681937291667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3768976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$31:$E$31,Sheet1!$L$33:$L$33,Sheet1!$S$33:$S$33,Sheet1!$Z$30:$Z$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.2413185</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.30935628333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.92098708125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.918038625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="34976362"/>
-        <c:axId val="83611027"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="34976362"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83611027"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83611027"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="34976362"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$W$16:$W$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>47.198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.00295</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.09751</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54.20073</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.3561</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$X$16:$X$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>21.408</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.251</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.95763</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.1223</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.7565000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Y$16:$Y$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>162.962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.4534</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.4048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>127.1752</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>212.14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Z$16:$Z$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>87.06737</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.80547</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.9076</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.7675</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>113.401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="34359943"/>
-        <c:axId val="66486458"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="34359943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66486458"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="66486458"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="34359943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$W$26:$W$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.554914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4022025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1454575</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.623129</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0465585</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$X$26:$X$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.538198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.50141</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.065219</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.768127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.979571</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Y$26:$Y$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.38996525</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.33753925</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.023767</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7761807375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3768976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Z$26:$Z$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.11079225</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2889878875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2575605</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.903549325</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.918038625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="37347097"/>
-        <c:axId val="85469204"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="37347097"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85469204"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="85469204"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="37347097"/>
-        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4644,9 +4662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>505440</xdr:colOff>
+      <xdr:colOff>505080</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4654,8 +4672,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7988400" y="12742560"/>
-        <a:ext cx="5652000" cy="3239280"/>
+        <a:off x="7817040" y="12742560"/>
+        <a:ext cx="5518080" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4674,9 +4692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
+      <xdr:colOff>521640</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4684,8 +4702,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14809680" y="16102800"/>
-        <a:ext cx="5657400" cy="3239280"/>
+        <a:off x="14466600" y="16102800"/>
+        <a:ext cx="5533560" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4697,16 +4715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>796320</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15480</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>144000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>571320</xdr:colOff>
+      <xdr:colOff>570960</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4714,8 +4732,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8054280" y="16237440"/>
-        <a:ext cx="5652000" cy="3239280"/>
+        <a:off x="7882920" y="16237440"/>
+        <a:ext cx="5518080" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4734,9 +4752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
+      <xdr:colOff>534600</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4744,8 +4762,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14822640" y="12688920"/>
-        <a:ext cx="5657400" cy="3239280"/>
+        <a:off x="14479560" y="12688920"/>
+        <a:ext cx="5533560" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4764,9 +4782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>326160</xdr:colOff>
+      <xdr:colOff>325800</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4775,7 +4793,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="315000" y="12909960"/>
-        <a:ext cx="5668920" cy="3237120"/>
+        <a:ext cx="5535000" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4794,9 +4812,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>247320</xdr:colOff>
+      <xdr:colOff>246960</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4804,8 +4822,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11090520" y="5621400"/>
-        <a:ext cx="5653800" cy="3237120"/>
+        <a:off x="10833480" y="5621400"/>
+        <a:ext cx="5520240" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4824,9 +4842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>370440</xdr:colOff>
+      <xdr:colOff>370080</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4834,8 +4852,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11215080" y="8917920"/>
-        <a:ext cx="5652360" cy="3239280"/>
+        <a:off x="10958040" y="8917920"/>
+        <a:ext cx="5518800" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4854,9 +4872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>617400</xdr:colOff>
+      <xdr:colOff>617040</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4864,8 +4882,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5586120" y="8845560"/>
-        <a:ext cx="5661000" cy="3237120"/>
+        <a:off x="5472000" y="8845560"/>
+        <a:ext cx="5517720" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4884,9 +4902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>617400</xdr:colOff>
+      <xdr:colOff>617040</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4894,8 +4912,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5586480" y="5540760"/>
-        <a:ext cx="5660640" cy="3237480"/>
+        <a:off x="5472360" y="5540760"/>
+        <a:ext cx="5517360" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4914,9 +4932,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>11160</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4925,7 +4943,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="5527080"/>
-        <a:ext cx="5668920" cy="3237120"/>
+        <a:ext cx="5535000" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4944,9 +4962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>24480</xdr:colOff>
+      <xdr:colOff>24120</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4955,7 +4973,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12960" y="8904600"/>
-        <a:ext cx="5669280" cy="3237480"/>
+        <a:ext cx="5535360" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4974,9 +4992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312840</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4985,7 +5003,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="301680" y="16594560"/>
-        <a:ext cx="5669280" cy="3237120"/>
+        <a:ext cx="5535360" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5004,9 +5022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>412560</xdr:colOff>
+      <xdr:colOff>412200</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5014,8 +5032,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16998480" y="5525280"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="16608240" y="5525280"/>
+        <a:ext cx="5625720" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5034,9 +5052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>388080</xdr:colOff>
+      <xdr:colOff>387720</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5044,8 +5062,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16974000" y="8901360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="16583760" y="8901360"/>
+        <a:ext cx="5625720" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5065,14 +5083,11 @@
   </sheetPr>
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q32" activeCellId="0" sqref="Q32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I69" activeCellId="0" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="n">
@@ -6739,6 +6754,17 @@
       <c r="G81" s="0" t="n">
         <f aca="false">(MAX(A81-F81,0)+MAX(B81-F81,0)+MAX(C81-F81,0)+MAX(D81-F81,0))/(1-F81)</f>
         <v>0.309859154929577</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <f aca="false">MDETERM(K67:M69)</f>
+        <v>0.984603592939063</v>
+      </c>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1" t="n">
+        <f aca="false">MDETERM(O67:Q69)</f>
+        <v>0.375242528098982</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,24 +7156,18 @@
   </sheetPr>
   <dimension ref="A3:AA81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.10714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="2.42857142857143"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="20" min="17" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="2.29591836734694"/>
-    <col collapsed="false" hidden="false" max="26" min="22" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="2.29591836734694"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="2.15816326530612"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.5816326530612"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7254,24 +7274,24 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="H13" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
@@ -7283,13 +7303,13 @@
       <c r="F14" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="0" t="s">
@@ -7340,20 +7360,20 @@
       <c r="K15" s="0" t="n">
         <v>108.8574</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L15" s="3" t="n">
         <v>108.8574</v>
       </c>
       <c r="M15" s="0" t="n">
         <f aca="false">SUM(Sheet1!I15:L15)</f>
         <v>283.8481</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R15" s="0" t="s">
@@ -7365,13 +7385,13 @@
       <c r="T15" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Y15" s="0" t="s">
@@ -7426,10 +7446,10 @@
       <c r="O16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="4" t="n">
         <v>41.7517</v>
       </c>
-      <c r="Q16" s="3" t="n">
+      <c r="Q16" s="4" t="n">
         <v>30.2577</v>
       </c>
       <c r="R16" s="0" t="n">
@@ -7445,16 +7465,16 @@
       <c r="V16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="W16" s="3" t="n">
+      <c r="W16" s="4" t="n">
         <v>47.198</v>
       </c>
-      <c r="X16" s="3" t="n">
+      <c r="X16" s="4" t="n">
         <v>21.408</v>
       </c>
-      <c r="Y16" s="3" t="n">
+      <c r="Y16" s="4" t="n">
         <v>162.962</v>
       </c>
-      <c r="Z16" s="3" t="n">
+      <c r="Z16" s="4" t="n">
         <v>87.06737</v>
       </c>
       <c r="AA16" s="0" t="n">
@@ -7488,7 +7508,7 @@
       <c r="I17" s="0" t="n">
         <v>13.6498</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="4" t="n">
         <v>15.9533</v>
       </c>
       <c r="K17" s="0" t="n">
@@ -7504,16 +7524,16 @@
       <c r="O17" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P17" s="3" t="n">
+      <c r="P17" s="4" t="n">
         <v>58.66863</v>
       </c>
-      <c r="Q17" s="3" t="n">
+      <c r="Q17" s="4" t="n">
         <v>16.3988</v>
       </c>
-      <c r="R17" s="3" t="n">
+      <c r="R17" s="4" t="n">
         <v>127.2309</v>
       </c>
-      <c r="S17" s="3" t="n">
+      <c r="S17" s="4" t="n">
         <v>82.5638</v>
       </c>
       <c r="T17" s="0" t="n">
@@ -7523,16 +7543,16 @@
       <c r="V17" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W17" s="3" t="n">
+      <c r="W17" s="4" t="n">
         <v>22.00295</v>
       </c>
-      <c r="X17" s="3" t="n">
+      <c r="X17" s="4" t="n">
         <v>16.251</v>
       </c>
-      <c r="Y17" s="3" t="n">
+      <c r="Y17" s="4" t="n">
         <v>74.4534</v>
       </c>
-      <c r="Z17" s="3" t="n">
+      <c r="Z17" s="4" t="n">
         <v>71.80547</v>
       </c>
       <c r="AA17" s="0" t="n">
@@ -7563,16 +7583,16 @@
       <c r="H18" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="4" t="n">
         <v>16.4503</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="J18" s="4" t="n">
         <v>14.4999</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="K18" s="4" t="n">
         <v>69.3649</v>
       </c>
-      <c r="L18" s="3" t="n">
+      <c r="L18" s="4" t="n">
         <v>58.4197</v>
       </c>
       <c r="M18" s="0" t="n">
@@ -7582,16 +7602,16 @@
       <c r="O18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P18" s="3" t="n">
+      <c r="P18" s="4" t="n">
         <v>29.0093</v>
       </c>
-      <c r="Q18" s="3" t="n">
+      <c r="Q18" s="4" t="n">
         <v>49.1603</v>
       </c>
-      <c r="R18" s="3" t="n">
+      <c r="R18" s="4" t="n">
         <v>120.6714</v>
       </c>
-      <c r="S18" s="3" t="n">
+      <c r="S18" s="4" t="n">
         <v>91.1117</v>
       </c>
       <c r="T18" s="0" t="n">
@@ -7601,16 +7621,16 @@
       <c r="V18" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="W18" s="3" t="n">
+      <c r="W18" s="4" t="n">
         <v>21.09751</v>
       </c>
-      <c r="X18" s="3" t="n">
+      <c r="X18" s="4" t="n">
         <v>16.95763</v>
       </c>
-      <c r="Y18" s="3" t="n">
+      <c r="Y18" s="4" t="n">
         <v>56.4048</v>
       </c>
-      <c r="Z18" s="3" t="n">
+      <c r="Z18" s="4" t="n">
         <v>63.9076</v>
       </c>
       <c r="AA18" s="0" t="n">
@@ -7641,16 +7661,16 @@
       <c r="H19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="4" t="n">
         <v>17.2095</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="4" t="n">
         <v>29.6276</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" s="4" t="n">
         <v>139.3775</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="L19" s="4" t="n">
         <v>111.0404</v>
       </c>
       <c r="M19" s="0" t="n">
@@ -7660,16 +7680,16 @@
       <c r="O19" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="P19" s="3" t="n">
+      <c r="P19" s="4" t="n">
         <v>36.213</v>
       </c>
-      <c r="Q19" s="3" t="n">
+      <c r="Q19" s="4" t="n">
         <v>22.4135</v>
       </c>
-      <c r="R19" s="3" t="n">
+      <c r="R19" s="4" t="n">
         <v>76.8215</v>
       </c>
-      <c r="S19" s="3" t="n">
+      <c r="S19" s="4" t="n">
         <v>55.2902</v>
       </c>
       <c r="T19" s="0" t="n">
@@ -7679,16 +7699,16 @@
       <c r="V19" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="W19" s="3" t="n">
+      <c r="W19" s="4" t="n">
         <v>54.20073</v>
       </c>
-      <c r="X19" s="3" t="n">
+      <c r="X19" s="4" t="n">
         <v>37.1223</v>
       </c>
-      <c r="Y19" s="3" t="n">
+      <c r="Y19" s="4" t="n">
         <v>127.1752</v>
       </c>
-      <c r="Z19" s="3" t="n">
+      <c r="Z19" s="4" t="n">
         <v>60.7675</v>
       </c>
       <c r="AA19" s="0" t="n">
@@ -7720,16 +7740,16 @@
       <c r="H20" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="4" t="n">
         <v>59.3345</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="J20" s="4" t="n">
         <v>16.4841</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K20" s="4" t="n">
         <v>109.5334</v>
       </c>
-      <c r="L20" s="3" t="n">
+      <c r="L20" s="4" t="n">
         <v>83.165</v>
       </c>
       <c r="M20" s="0" t="n">
@@ -7739,16 +7759,16 @@
       <c r="O20" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="P20" s="3" t="n">
+      <c r="P20" s="4" t="n">
         <v>21.4411</v>
       </c>
-      <c r="Q20" s="3" t="n">
+      <c r="Q20" s="4" t="n">
         <v>17.1868</v>
       </c>
-      <c r="R20" s="3" t="n">
+      <c r="R20" s="4" t="n">
         <v>86.8132</v>
       </c>
-      <c r="S20" s="3" t="n">
+      <c r="S20" s="4" t="n">
         <v>61.2443</v>
       </c>
       <c r="T20" s="0" t="n">
@@ -7779,16 +7799,16 @@
       <c r="H21" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="4" t="n">
         <v>35.49839</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J21" s="4" t="n">
         <v>34.55538</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="K21" s="4" t="n">
         <v>99.4809</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="L21" s="4" t="n">
         <v>93.1132</v>
       </c>
       <c r="M21" s="0" t="n">
@@ -7798,16 +7818,16 @@
       <c r="O21" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="4" t="n">
         <v>20.20286</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="4" t="n">
         <v>25.701</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="4" t="n">
         <v>283.4138</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="S21" s="4" t="n">
         <v>192.724</v>
       </c>
       <c r="T21" s="0" t="n">
@@ -7839,16 +7859,16 @@
       <c r="O22" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="P22" s="3" t="n">
+      <c r="P22" s="4" t="n">
         <v>24.4088</v>
       </c>
-      <c r="Q22" s="3" t="n">
+      <c r="Q22" s="4" t="n">
         <v>42.2601</v>
       </c>
-      <c r="R22" s="3" t="n">
+      <c r="R22" s="4" t="n">
         <v>41.2966</v>
       </c>
-      <c r="S22" s="3" t="n">
+      <c r="S22" s="4" t="n">
         <v>38.1163</v>
       </c>
       <c r="T22" s="0" t="n">
@@ -7909,13 +7929,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="0" t="s">
@@ -7927,13 +7947,13 @@
       <c r="F25" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K25" s="0" t="s">
@@ -7945,13 +7965,13 @@
       <c r="M25" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R25" s="0" t="s">
@@ -7963,13 +7983,13 @@
       <c r="T25" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Y25" s="0" t="s">
@@ -7986,16 +8006,16 @@
       <c r="A26" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>4.2803805</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <v>16.95301</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="4" t="n">
         <v>9.070060125</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="4" t="n">
         <v>8.529818625</v>
       </c>
       <c r="F26" s="0" t="n">
@@ -8005,16 +8025,16 @@
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="4" t="n">
         <v>2.150934</v>
       </c>
-      <c r="J26" s="3" t="n">
+      <c r="J26" s="4" t="n">
         <v>7.16804</v>
       </c>
-      <c r="K26" s="3" t="n">
+      <c r="K26" s="4" t="n">
         <v>4.013610625</v>
       </c>
-      <c r="L26" s="2" t="n">
+      <c r="L26" s="3" t="n">
         <v>4.013610625</v>
       </c>
       <c r="M26" s="0" t="n">
@@ -8024,16 +8044,16 @@
       <c r="O26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P26" s="3" t="n">
+      <c r="P26" s="4" t="n">
         <v>2.619807</v>
       </c>
-      <c r="Q26" s="3" t="n">
+      <c r="Q26" s="4" t="n">
         <v>1.576296</v>
       </c>
-      <c r="R26" s="3" t="n">
+      <c r="R26" s="4" t="n">
         <v>3.5077465</v>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="3" t="n">
         <v>3.1814095</v>
       </c>
       <c r="T26" s="0" t="n">
@@ -8043,16 +8063,16 @@
       <c r="V26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="W26" s="3" t="n">
+      <c r="W26" s="4" t="n">
         <v>1.554914</v>
       </c>
-      <c r="X26" s="3" t="n">
+      <c r="X26" s="4" t="n">
         <v>3.538198</v>
       </c>
-      <c r="Y26" s="3" t="n">
+      <c r="Y26" s="4" t="n">
         <v>2.38996525</v>
       </c>
-      <c r="Z26" s="3" t="n">
+      <c r="Z26" s="4" t="n">
         <v>2.11079225</v>
       </c>
       <c r="AA26" s="0" t="n">
@@ -8064,16 +8084,16 @@
       <c r="A27" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>3.86967</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <v>6.642847</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="4" t="n">
         <v>7.381541125</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="4" t="n">
         <v>5.70552475</v>
       </c>
       <c r="F27" s="0" t="n">
@@ -8083,16 +8103,16 @@
       <c r="H27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="4" t="n">
         <v>1.923633</v>
       </c>
-      <c r="J27" s="3" t="n">
+      <c r="J27" s="4" t="n">
         <v>11.75348</v>
       </c>
-      <c r="K27" s="3" t="n">
+      <c r="K27" s="4" t="n">
         <v>3.251325575</v>
       </c>
-      <c r="L27" s="3" t="n">
+      <c r="L27" s="4" t="n">
         <v>3.595758</v>
       </c>
       <c r="M27" s="0" t="n">
@@ -8102,16 +8122,16 @@
       <c r="O27" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="P27" s="3" t="n">
+      <c r="P27" s="4" t="n">
         <v>0.867342</v>
       </c>
-      <c r="Q27" s="3" t="n">
+      <c r="Q27" s="4" t="n">
         <v>3.243309</v>
       </c>
-      <c r="R27" s="3" t="n">
+      <c r="R27" s="4" t="n">
         <v>2.972291</v>
       </c>
-      <c r="S27" s="3" t="n">
+      <c r="S27" s="4" t="n">
         <v>3.701374375</v>
       </c>
       <c r="T27" s="0" t="n">
@@ -8121,16 +8141,16 @@
       <c r="V27" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="W27" s="3" t="n">
+      <c r="W27" s="4" t="n">
         <v>1.4022025</v>
       </c>
-      <c r="X27" s="3" t="n">
+      <c r="X27" s="4" t="n">
         <v>4.50141</v>
       </c>
-      <c r="Y27" s="3" t="n">
+      <c r="Y27" s="4" t="n">
         <v>3.33753925</v>
       </c>
-      <c r="Z27" s="3" t="n">
+      <c r="Z27" s="4" t="n">
         <v>2.2889878875</v>
       </c>
       <c r="AA27" s="0" t="n">
@@ -8142,16 +8162,16 @@
       <c r="A28" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>1.317529</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4" t="n">
         <v>9.220284</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="4" t="n">
         <v>6.553977625</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="4" t="n">
         <v>5.216207</v>
       </c>
       <c r="F28" s="0" t="n">
@@ -8161,16 +8181,16 @@
       <c r="H28" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="4" t="n">
         <v>3.004579</v>
       </c>
-      <c r="J28" s="3" t="n">
+      <c r="J28" s="4" t="n">
         <v>4.069859</v>
       </c>
-      <c r="K28" s="3" t="n">
+      <c r="K28" s="4" t="n">
         <v>4.849438875</v>
       </c>
-      <c r="L28" s="3" t="n">
+      <c r="L28" s="4" t="n">
         <v>4.512302825</v>
       </c>
       <c r="M28" s="0" t="n">
@@ -8180,16 +8200,16 @@
       <c r="O28" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P28" s="3" t="n">
+      <c r="P28" s="4" t="n">
         <v>2.35932</v>
       </c>
-      <c r="Q28" s="3" t="n">
+      <c r="Q28" s="4" t="n">
         <v>4.060901</v>
       </c>
-      <c r="R28" s="3" t="n">
+      <c r="R28" s="4" t="n">
         <v>3.9785115</v>
       </c>
-      <c r="S28" s="3" t="n">
+      <c r="S28" s="4" t="n">
         <v>3.410890875</v>
       </c>
       <c r="T28" s="0" t="n">
@@ -8199,16 +8219,16 @@
       <c r="V28" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="W28" s="3" t="n">
+      <c r="W28" s="4" t="n">
         <v>3.1454575</v>
       </c>
-      <c r="X28" s="3" t="n">
+      <c r="X28" s="4" t="n">
         <v>6.065219</v>
       </c>
-      <c r="Y28" s="3" t="n">
+      <c r="Y28" s="4" t="n">
         <v>3.023767</v>
       </c>
-      <c r="Z28" s="3" t="n">
+      <c r="Z28" s="4" t="n">
         <v>3.2575605</v>
       </c>
       <c r="AA28" s="0" t="n">
@@ -8220,16 +8240,16 @@
       <c r="A29" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>4.0249215</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>8.576299</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="4" t="n">
         <v>3.3415055</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="4" t="n">
         <v>3.299659</v>
       </c>
       <c r="F29" s="0" t="n">
@@ -8239,16 +8259,16 @@
       <c r="H29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="4" t="n">
         <v>2.1928545</v>
       </c>
-      <c r="J29" s="3" t="n">
+      <c r="J29" s="4" t="n">
         <v>5.547572</v>
       </c>
-      <c r="K29" s="3" t="n">
+      <c r="K29" s="4" t="n">
         <v>6.0378925</v>
       </c>
-      <c r="L29" s="3" t="n">
+      <c r="L29" s="4" t="n">
         <v>4.339551</v>
       </c>
       <c r="M29" s="0" t="n">
@@ -8258,16 +8278,16 @@
       <c r="O29" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="P29" s="3" t="n">
+      <c r="P29" s="4" t="n">
         <v>2.2592535</v>
       </c>
-      <c r="Q29" s="3" t="n">
+      <c r="Q29" s="4" t="n">
         <v>3.317118</v>
       </c>
-      <c r="R29" s="3" t="n">
+      <c r="R29" s="4" t="n">
         <v>4.44014875</v>
       </c>
-      <c r="S29" s="3" t="n">
+      <c r="S29" s="4" t="n">
         <v>4.628315625</v>
       </c>
       <c r="T29" s="0" t="n">
@@ -8277,16 +8297,16 @@
       <c r="V29" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="W29" s="3" t="n">
+      <c r="W29" s="4" t="n">
         <v>1.623129</v>
       </c>
-      <c r="X29" s="3" t="n">
+      <c r="X29" s="4" t="n">
         <v>2.768127</v>
       </c>
-      <c r="Y29" s="3" t="n">
+      <c r="Y29" s="4" t="n">
         <v>1.7761807375</v>
       </c>
-      <c r="Z29" s="3" t="n">
+      <c r="Z29" s="4" t="n">
         <v>1.903549325</v>
       </c>
       <c r="AA29" s="0" t="n">
@@ -8298,16 +8318,16 @@
       <c r="A30" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>4.4561235</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4" t="n">
         <v>9.002918</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="4" t="n">
         <v>7.648324125</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="4" t="n">
         <v>8.455383125</v>
       </c>
       <c r="F30" s="0" t="n">
@@ -8317,16 +8337,16 @@
       <c r="H30" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="4" t="n">
         <v>2.5768675</v>
       </c>
-      <c r="J30" s="3" t="n">
+      <c r="J30" s="4" t="n">
         <v>8.645294</v>
       </c>
-      <c r="K30" s="3" t="n">
+      <c r="K30" s="4" t="n">
         <v>4.726371375</v>
       </c>
-      <c r="L30" s="3" t="n">
+      <c r="L30" s="4" t="n">
         <v>3.707838875</v>
       </c>
       <c r="M30" s="0" t="n">
@@ -8336,16 +8356,16 @@
       <c r="O30" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="P30" s="3" t="n">
+      <c r="P30" s="4" t="n">
         <v>1.300738</v>
       </c>
-      <c r="Q30" s="3" t="n">
+      <c r="Q30" s="4" t="n">
         <v>3.357939</v>
       </c>
-      <c r="R30" s="3" t="n">
+      <c r="R30" s="4" t="n">
         <v>3.179115575</v>
       </c>
-      <c r="S30" s="3" t="n">
+      <c r="S30" s="4" t="n">
         <v>4.2478688625</v>
       </c>
       <c r="T30" s="0" t="n">
@@ -8392,16 +8412,16 @@
       <c r="H31" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="4" t="n">
         <v>4.601643</v>
       </c>
-      <c r="J31" s="3" t="n">
+      <c r="J31" s="4" t="n">
         <v>8.891509</v>
       </c>
-      <c r="K31" s="3" t="n">
+      <c r="K31" s="4" t="n">
         <v>5.07176175</v>
       </c>
-      <c r="L31" s="3" t="n">
+      <c r="L31" s="4" t="n">
         <v>5.540681</v>
       </c>
       <c r="M31" s="0" t="n">
@@ -8415,13 +8435,13 @@
         <f aca="false">AVERAGE(Sheet1!P30:Q30)</f>
         <v>2.3293385</v>
       </c>
-      <c r="Q31" s="3" t="n">
+      <c r="Q31" s="4" t="n">
         <v>4.309965</v>
       </c>
-      <c r="R31" s="3" t="n">
+      <c r="R31" s="4" t="n">
         <v>2.6522025375</v>
       </c>
-      <c r="S31" s="3" t="n">
+      <c r="S31" s="4" t="n">
         <v>2.95349675</v>
       </c>
       <c r="T31" s="0" t="n">
@@ -8437,16 +8457,16 @@
       <c r="H32" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="4" t="n">
         <v>1.390942</v>
       </c>
-      <c r="J32" s="3" t="n">
+      <c r="J32" s="4" t="n">
         <v>4.142436</v>
       </c>
-      <c r="K32" s="3" t="n">
+      <c r="K32" s="4" t="n">
         <v>4.69978675</v>
       </c>
-      <c r="L32" s="3" t="n">
+      <c r="L32" s="4" t="n">
         <v>4.160006</v>
       </c>
       <c r="M32" s="0" t="n">
@@ -8456,16 +8476,16 @@
       <c r="O32" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="P32" s="3" t="n">
+      <c r="P32" s="4" t="n">
         <v>2.187007</v>
       </c>
-      <c r="Q32" s="3" t="n">
+      <c r="Q32" s="4" t="n">
         <v>8.903512</v>
       </c>
-      <c r="R32" s="3" t="n">
+      <c r="R32" s="4" t="n">
         <v>4.778646875</v>
       </c>
-      <c r="S32" s="3" t="n">
+      <c r="S32" s="4" t="n">
         <v>4.583976</v>
       </c>
       <c r="T32" s="0" t="n">
@@ -8641,9 +8661,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8802,23 +8819,23 @@
         <f aca="false">SUM(WorkLoad_User!D11:G11)</f>
         <v>828</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J11" s="5" t="n">
         <f aca="false">(WorkLoad_User!D11-0)/(WorkLoad_User!D2-0)</f>
         <v>0.142610695802185</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <f aca="false">(WorkLoad_User!E11-0)/(WorkLoad_User!D2-0)</f>
         <v>0.147211040828062</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <f aca="false">(WorkLoad_User!F11-0)/(WorkLoad_User!D2-0)</f>
         <v>0.039102932719954</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="5" t="n">
         <f aca="false">(WorkLoad_User!G11-0)/(WorkLoad_User!D2-0)</f>
         <v>0.147211040828062</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="5" t="n">
         <f aca="false">(WorkLoad_User!H11-0)/(WorkLoad_User!D2-0)</f>
         <v>0.476135710178263</v>
       </c>
@@ -8843,23 +8860,23 @@
         <f aca="false">SUM(WorkLoad_User!D12:G12)</f>
         <v>885</v>
       </c>
-      <c r="J12" s="4" t="n">
+      <c r="J12" s="5" t="n">
         <f aca="false">(WorkLoad_User!D12-0)/(WorkLoad_User!D2-0)</f>
         <v>0.1046578493387</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <f aca="false">(WorkLoad_User!E12-0)/(WorkLoad_User!D2-0)</f>
         <v>0.188614146060955</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <f aca="false">(WorkLoad_User!F12-0)/(WorkLoad_User!D2-0)</f>
         <v>0.027027027027027</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="5" t="n">
         <f aca="false">(WorkLoad_User!G12-0)/(WorkLoad_User!D2-0)</f>
         <v>0.188614146060955</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="5" t="n">
         <f aca="false">(WorkLoad_User!H12-0)/(WorkLoad_User!D2-0)</f>
         <v>0.508913168487637</v>
       </c>
@@ -8884,23 +8901,23 @@
         <f aca="false">SUM(WorkLoad_User!D13:G13)</f>
         <v>748</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="J13" s="5" t="n">
         <f aca="false">(WorkLoad_User!D13-0)/(WorkLoad_User!D2-0)</f>
         <v>0.090281771132835</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <f aca="false">(WorkLoad_User!E13-0)/(WorkLoad_User!D2-0)</f>
         <v>0.112708453133985</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <f aca="false">(WorkLoad_User!F13-0)/(WorkLoad_User!D2-0)</f>
         <v>0.114433582518689</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="M13" s="5" t="n">
         <f aca="false">(WorkLoad_User!G13-0)/(WorkLoad_User!D2-0)</f>
         <v>0.112708453133985</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="N13" s="5" t="n">
         <f aca="false">(WorkLoad_User!H13-0)/(WorkLoad_User!D2-0)</f>
         <v>0.430132259919494</v>
       </c>
@@ -8925,23 +8942,23 @@
         <f aca="false">SUM(WorkLoad_User!D14:G14)</f>
         <v>1110</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="J14" s="5" t="n">
         <f aca="false">(WorkLoad_User!D14-0)/(WorkLoad_User!D2-0)</f>
         <v>0.538815411155837</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <f aca="false">(WorkLoad_User!E14-0)/(WorkLoad_User!D2-0)</f>
         <v>0.0994824611845888</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <f aca="false">(WorkLoad_User!F14-0)/(WorkLoad_User!D2-0)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="5" t="n">
         <f aca="false">(WorkLoad_User!G14-0)/(WorkLoad_User!D2-0)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="5" t="n">
         <f aca="false">(WorkLoad_User!H14-0)/(WorkLoad_User!D2-0)</f>
         <v>0.638297872340426</v>
       </c>
@@ -8966,23 +8983,23 @@
         <f aca="false">SUM(WorkLoad_User!D15:G15)</f>
         <v>1402</v>
       </c>
-      <c r="J15" s="4" t="n">
+      <c r="J15" s="5" t="n">
         <f aca="false">(WorkLoad_User!D15-0)/(WorkLoad_User!D3-0)</f>
         <v>0.0698861405575187</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <f aca="false">(WorkLoad_User!E15-0)/(WorkLoad_User!D3-0)</f>
         <v>0.234786022771888</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <f aca="false">(WorkLoad_User!F15-0)/(WorkLoad_User!D3-0)</f>
         <v>0.010993325480958</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="5" t="n">
         <f aca="false">(WorkLoad_User!G15-0)/(WorkLoad_User!D3-0)</f>
         <v>0.234786022771888</v>
       </c>
-      <c r="N15" s="4" t="n">
+      <c r="N15" s="5" t="n">
         <f aca="false">(WorkLoad_User!H15-0)/(WorkLoad_User!D3-0)</f>
         <v>0.550451511582254</v>
       </c>
@@ -9007,23 +9024,23 @@
         <f aca="false">SUM(WorkLoad_User!D16:G16)</f>
         <v>416</v>
       </c>
-      <c r="J16" s="4" t="n">
+      <c r="J16" s="5" t="n">
         <f aca="false">(WorkLoad_User!D16-0)/(WorkLoad_User!D3-0)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <f aca="false">(WorkLoad_User!E16-0)/(WorkLoad_User!D3-0)</f>
         <v>0.0816647035728308</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <f aca="false">(WorkLoad_User!F16-0)/(WorkLoad_User!D3-0)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="5" t="n">
         <f aca="false">(WorkLoad_User!G16-0)/(WorkLoad_User!D3-0)</f>
         <v>0.0816647035728308</v>
       </c>
-      <c r="N16" s="4" t="n">
+      <c r="N16" s="5" t="n">
         <f aca="false">(WorkLoad_User!H16-0)/(WorkLoad_User!D3-0)</f>
         <v>0.163329407145662</v>
       </c>
@@ -9048,23 +9065,23 @@
         <f aca="false">SUM(WorkLoad_User!D17:G17)</f>
         <v>805</v>
       </c>
-      <c r="J17" s="4" t="n">
+      <c r="J17" s="5" t="n">
         <f aca="false">(WorkLoad_User!D17-0)/(WorkLoad_User!D3-0)</f>
         <v>0.022379269729093</v>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <f aca="false">(WorkLoad_User!E17-0)/(WorkLoad_User!D3-0)</f>
         <v>0.0934432665881429</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <f aca="false">(WorkLoad_User!F17-0)/(WorkLoad_User!D3-0)</f>
         <v>0.106792304672163</v>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="5" t="n">
         <f aca="false">(WorkLoad_User!G17-0)/(WorkLoad_User!D3-0)</f>
         <v>0.0934432665881429</v>
       </c>
-      <c r="N17" s="4" t="n">
+      <c r="N17" s="5" t="n">
         <f aca="false">(WorkLoad_User!H17-0)/(WorkLoad_User!D3-0)</f>
         <v>0.316058107577542</v>
       </c>
@@ -9089,23 +9106,23 @@
         <f aca="false">SUM(WorkLoad_User!D18:G18)</f>
         <v>1532</v>
       </c>
-      <c r="J18" s="4" t="n">
+      <c r="J18" s="5" t="n">
         <f aca="false">(WorkLoad_User!D18-0)/(WorkLoad_User!D3-0)</f>
         <v>0.478994895956027</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <f aca="false">(WorkLoad_User!E18-0)/(WorkLoad_User!D3-0)</f>
         <v>0.0926580290537888</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <f aca="false">(WorkLoad_User!F18-0)/(WorkLoad_User!D3-0)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="M18" s="5" t="n">
         <f aca="false">(WorkLoad_User!D15-0)/(WorkLoad_User!D3-0)</f>
         <v>0.0698861405575187</v>
       </c>
-      <c r="N18" s="4" t="n">
+      <c r="N18" s="5" t="n">
         <f aca="false">(WorkLoad_User!H18-0)/(WorkLoad_User!D3-0)</f>
         <v>0.601491951315273</v>
       </c>
@@ -9130,23 +9147,23 @@
         <f aca="false">SUM(WorkLoad_User!D19:G19)</f>
         <v>764</v>
       </c>
-      <c r="J19" s="4" t="n">
+      <c r="J19" s="5" t="n">
         <f aca="false">(WorkLoad_User!D19-0)/(WorkLoad_User!D4-0)</f>
         <v>0.29939718687207</v>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <f aca="false">(WorkLoad_User!E19-0)/(WorkLoad_User!D4-0)</f>
         <v>0.0797052913596785</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <f aca="false">(WorkLoad_User!F19-0)/(WorkLoad_User!D4-0)</f>
         <v>0.0529135967849967</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="5" t="n">
         <f aca="false">(WorkLoad_User!G19-0)/(WorkLoad_User!D4-0)</f>
         <v>0.0797052913596785</v>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="N19" s="5" t="n">
         <f aca="false">(WorkLoad_User!H19-0)/(WorkLoad_User!D4-0)</f>
         <v>0.511721366376423</v>
       </c>
@@ -9171,23 +9188,23 @@
         <f aca="false">SUM(WorkLoad_User!D20:G20)</f>
         <v>535</v>
       </c>
-      <c r="J20" s="4" t="n">
+      <c r="J20" s="5" t="n">
         <f aca="false">(WorkLoad_User!D20-0)/(WorkLoad_User!D4-0)</f>
         <v>0.0636302746148694</v>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <f aca="false">(WorkLoad_User!E20-0)/(WorkLoad_User!D4-0)</f>
         <v>0.137307434695244</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <f aca="false">(WorkLoad_User!F20-0)/(WorkLoad_User!D4-0)</f>
         <v>0.0200937709310114</v>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="M20" s="5" t="n">
         <f aca="false">(WorkLoad_User!G20-0)/(WorkLoad_User!D4-0)</f>
         <v>0.137307434695244</v>
       </c>
-      <c r="N20" s="4" t="n">
+      <c r="N20" s="5" t="n">
         <f aca="false">(WorkLoad_User!H20-0)/(WorkLoad_User!D4-0)</f>
         <v>0.35833891493637</v>
       </c>
@@ -9212,23 +9229,23 @@
         <f aca="false">SUM(WorkLoad_User!D21:G21)</f>
         <v>484</v>
       </c>
-      <c r="J21" s="4" t="n">
+      <c r="J21" s="5" t="n">
         <f aca="false">(WorkLoad_User!D21-0)/(WorkLoad_User!D4-0)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <f aca="false">(WorkLoad_User!E21-0)/(WorkLoad_User!D4-0)</f>
         <v>0.162089752176825</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <f aca="false">(WorkLoad_User!F21-0)/(WorkLoad_User!D4-0)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="4" t="n">
+      <c r="M21" s="5" t="n">
         <f aca="false">(WorkLoad_User!G21-0)/(WorkLoad_User!D4-0)</f>
         <v>0.162089752176825</v>
       </c>
-      <c r="N21" s="4" t="n">
+      <c r="N21" s="5" t="n">
         <f aca="false">(WorkLoad_User!H21-0)/(WorkLoad_User!D4-0)</f>
         <v>0.32417950435365</v>
       </c>
@@ -9253,23 +9270,23 @@
         <f aca="false">SUM(WorkLoad_User!D22:G22)</f>
         <v>229</v>
       </c>
-      <c r="J22" s="4" t="n">
+      <c r="J22" s="5" t="n">
         <f aca="false">(WorkLoad_User!D22-0)/(WorkLoad_User!D4-0)</f>
         <v>0.0174146014735432</v>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <f aca="false">(WorkLoad_User!E22-0)/(WorkLoad_User!D4-0)</f>
         <v>0.0964501004688547</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <f aca="false">(WorkLoad_User!F22-0)/(WorkLoad_User!D4-0)</f>
         <v>0.0341594105827194</v>
       </c>
-      <c r="M22" s="4" t="n">
+      <c r="M22" s="5" t="n">
         <f aca="false">(WorkLoad_User!D19-0)/(WorkLoad_User!D4-0)</f>
         <v>0.29939718687207</v>
       </c>
-      <c r="N22" s="4" t="n">
+      <c r="N22" s="5" t="n">
         <f aca="false">(WorkLoad_User!H22-0)/(WorkLoad_User!D4-0)</f>
         <v>0.153382451440054</v>
       </c>
@@ -9294,23 +9311,23 @@
         <f aca="false">SUM(WorkLoad_User!D23:G23)</f>
         <v>526</v>
       </c>
-      <c r="J23" s="4" t="n">
+      <c r="J23" s="5" t="n">
         <f aca="false">(WorkLoad_User!D23-0)/(WorkLoad_User!D5-0)</f>
         <v>0.0432862190812721</v>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <f aca="false">(WorkLoad_User!E23-0)/(WorkLoad_User!D5-0)</f>
         <v>0.159010600706714</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <f aca="false">(WorkLoad_User!F23-0)/(WorkLoad_User!D5-0)</f>
         <v>0.103356890459364</v>
       </c>
-      <c r="M23" s="4" t="n">
+      <c r="M23" s="5" t="n">
         <f aca="false">(WorkLoad_User!G23-0)/(WorkLoad_User!D5-0)</f>
         <v>0.159010600706714</v>
       </c>
-      <c r="N23" s="4" t="n">
+      <c r="N23" s="5" t="n">
         <f aca="false">(WorkLoad_User!H23-0)/(WorkLoad_User!D5-0)</f>
         <v>0.464664310954064</v>
       </c>
@@ -9335,23 +9352,23 @@
         <f aca="false">SUM(WorkLoad_User!D24:G24)</f>
         <v>486</v>
       </c>
-      <c r="J24" s="4" t="n">
+      <c r="J24" s="5" t="n">
         <f aca="false">(WorkLoad_User!D24-0)/(WorkLoad_User!D5-0)</f>
         <v>0.113957597173145</v>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <f aca="false">(WorkLoad_User!E24-0)/(WorkLoad_User!D5-0)</f>
         <v>0.122791519434629</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <f aca="false">(WorkLoad_User!F24-0)/(WorkLoad_User!D5-0)</f>
         <v>0.0697879858657244</v>
       </c>
-      <c r="M24" s="4" t="n">
+      <c r="M24" s="5" t="n">
         <f aca="false">(WorkLoad_User!G24-0)/(WorkLoad_User!D5-0)</f>
         <v>0.122791519434629</v>
       </c>
-      <c r="N24" s="4" t="n">
+      <c r="N24" s="5" t="n">
         <f aca="false">(WorkLoad_User!H24-0)/(WorkLoad_User!D5-0)</f>
         <v>0.429328621908127</v>
       </c>
@@ -9376,23 +9393,23 @@
         <f aca="false">SUM(WorkLoad_User!D25:G25)</f>
         <v>295</v>
       </c>
-      <c r="J25" s="4" t="n">
+      <c r="J25" s="5" t="n">
         <f aca="false">(WorkLoad_User!D25-0)/(WorkLoad_User!D5-0)</f>
         <v>0.053886925795053</v>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <f aca="false">(WorkLoad_User!E25-0)/(WorkLoad_User!D5-0)</f>
         <v>0.103356890459364</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <f aca="false">(WorkLoad_User!F25-0)/(WorkLoad_User!D5-0)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="4" t="n">
+      <c r="M25" s="5" t="n">
         <f aca="false">(WorkLoad_User!G25-0)/(WorkLoad_User!D5-0)</f>
         <v>0.103356890459364</v>
       </c>
-      <c r="N25" s="4" t="n">
+      <c r="N25" s="5" t="n">
         <f aca="false">(WorkLoad_User!H25-0)/(WorkLoad_User!D5-0)</f>
         <v>0.260600706713781</v>
       </c>
@@ -9417,23 +9434,23 @@
         <f aca="false">SUM(WorkLoad_User!D26:G26)</f>
         <v>527</v>
       </c>
-      <c r="J26" s="4" t="n">
+      <c r="J26" s="5" t="n">
         <f aca="false">(WorkLoad_User!D26-0)/(WorkLoad_User!D5-0)</f>
         <v>0.225265017667844</v>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <f aca="false">(WorkLoad_User!E26-0)/(WorkLoad_User!D5-0)</f>
         <v>0.187279151943463</v>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <f aca="false">(WorkLoad_User!F26-0)/(WorkLoad_User!D5-0)</f>
         <v>0.0159010600706714</v>
       </c>
-      <c r="M26" s="4" t="n">
+      <c r="M26" s="5" t="n">
         <f aca="false">(WorkLoad_User!D23-0)/(WorkLoad_User!D5-0)</f>
         <v>0.0432862190812721</v>
       </c>
-      <c r="N26" s="4" t="n">
+      <c r="N26" s="5" t="n">
         <f aca="false">(WorkLoad_User!H26-0)/(WorkLoad_User!D5-0)</f>
         <v>0.465547703180212</v>
       </c>
@@ -9461,9 +9478,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -9480,17 +9494,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A13:AB44"/>
+  <dimension ref="A2:AC44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="N37" activeCellId="0" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>0.999999999999999</v>
@@ -9500,22 +9521,22 @@
         <v>0.999999999999999</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3351351351</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.3</v>
+        <v>0.8486486487</v>
       </c>
       <c r="L13" s="0" t="n">
         <f aca="false">AVERAGE(H13:I13)</f>
-        <v>0.4</v>
+        <v>0.5918918919</v>
       </c>
       <c r="M13" s="0" t="n">
         <f aca="false">(MAX(H13-L13,0)+MAX(I13-L13,0)+MAX(J13-L13,0)+MAX(K13-L13,0))/(1-L13)</f>
-        <v>0.166666666666667</v>
+        <v>0.629139072966142</v>
       </c>
       <c r="N13" s="0" t="n">
         <f aca="false">VAR(H13:I13)</f>
-        <v>0.02</v>
+        <v>0.131848064324909</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>0.774058577405858</v>
@@ -9534,6 +9555,10 @@
         <f aca="false">(MAX(O13-S13,0)+MAX(P13-S13,0)+MAX(Q13-S13,0)+MAX(R13-S13,0))/(1-S13)</f>
         <v>0.61244019138756</v>
       </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">VAR(O13:Q13)</f>
+        <v>0.0956118493101391</v>
+      </c>
       <c r="W13" s="0" t="n">
         <v>0.325242718446602</v>
       </c>
@@ -9554,6 +9579,10 @@
         <f aca="false">(MAX(W13-AA13,0)+MAX(X13-AA13,0)+MAX(Y13-AA13,0)+MAX(Z13-AA13,0))/(1-AA13)</f>
         <v>0.0947503201024327</v>
       </c>
+      <c r="AC13" s="0" t="n">
+        <f aca="false">VAR(W13:Z13)</f>
+        <v>0.00164867006699412</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -9598,6 +9627,10 @@
         <f aca="false">(MAX(O14-S14,0)+MAX(P14-S14,0)+MAX(Q14-S14,0)+MAX(R14-S14,0))/(1-S14)</f>
         <v>0.34703196347032</v>
       </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">VAR(O14:Q14)</f>
+        <v>0.0314564973561929</v>
+      </c>
       <c r="W14" s="0" t="n">
         <v>0.433098591549296</v>
       </c>
@@ -9618,6 +9651,10 @@
         <f aca="false">(MAX(W14-AA14,0)+MAX(X14-AA14,0)+MAX(Y14-AA14,0)+MAX(Z14-AA14,0))/(1-AA14)</f>
         <v>0.388888888888889</v>
       </c>
+      <c r="AC14" s="0" t="n">
+        <f aca="false">VAR(W14:Z14)</f>
+        <v>0.0291030218871917</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -9662,6 +9699,10 @@
         <f aca="false">(MAX(O15-S15,0)+MAX(P15-S15,0)+MAX(Q15-S15,0)+MAX(R15-S15,0))/(1-S15)</f>
         <v>0.534296028880867</v>
       </c>
+      <c r="U15" s="0" t="n">
+        <f aca="false">VAR(O15:Q15)</f>
+        <v>0.0795628415300547</v>
+      </c>
       <c r="W15" s="0" t="n">
         <v>0.190298507462687</v>
       </c>
@@ -9682,6 +9723,10 @@
         <f aca="false">(MAX(W15-AA15,0)+MAX(X15-AA15,0)+MAX(Y15-AA15,0)+MAX(Z15-AA15,0))/(1-AA15)</f>
         <v>0.431372549019608</v>
       </c>
+      <c r="AC15" s="0" t="n">
+        <f aca="false">VAR(W15:Z15)</f>
+        <v>0.0313022109601248</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -9726,6 +9771,10 @@
         <f aca="false">(MAX(O16-S16,0)+MAX(P16-S16,0)+MAX(Q16-S16,0)+MAX(R16-S16,0))/(1-S16)</f>
         <v>0.454545454545455</v>
       </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">VAR(O16:Q16)</f>
+        <v>0.0513644907839399</v>
+      </c>
       <c r="W16" s="0" t="n">
         <v>0.372289156626506</v>
       </c>
@@ -9746,6 +9795,10 @@
         <f aca="false">(MAX(W16-AA16,0)+MAX(X16-AA16,0)+MAX(Y16-AA16,0)+MAX(Z16-AA16,0))/(1-AA16)</f>
         <v>0.463231615807904</v>
       </c>
+      <c r="AC16" s="0" t="n">
+        <f aca="false">VAR(W16:Z16)</f>
+        <v>0.0368029951129821</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -9757,7 +9810,7 @@
       </c>
       <c r="M17" s="0" t="n">
         <f aca="false">AVERAGE(M13:M16)</f>
-        <v>0.446712078770902</v>
+        <v>0.562330180345771</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>0.245059288537549</v>
@@ -9776,6 +9829,10 @@
         <f aca="false">(MAX(O17-S17,0)+MAX(P17-S17,0)+MAX(Q17-S17,0)+MAX(R17-S17,0))/(1-S17)</f>
         <v>0.694805194805195</v>
       </c>
+      <c r="U17" s="0" t="n">
+        <f aca="false">VAR(O17:Q17)</f>
+        <v>0.13840241216079</v>
+      </c>
       <c r="AB17" s="0" t="n">
         <f aca="false">AVERAGE(AB13:AB16)</f>
         <v>0.344560843454709</v>
@@ -9798,6 +9855,10 @@
       <c r="T18" s="0" t="n">
         <f aca="false">(MAX(O18-S18,0)+MAX(P18-S18,0)+MAX(Q18-S18,0)+MAX(R18-S18,0))/(1-S18)</f>
         <v>0.612312811980034</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <f aca="false">VAR(O18:Q18)</f>
+        <v>0.099918618531991</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9849,6 +9910,10 @@
         <f aca="false">(MAX(O22-S22,0)+MAX(P22-S22,0)+MAX(Q22-S22,0)+MAX(R22-S22,0))/(1-S22)</f>
         <v>0.62295081967213</v>
       </c>
+      <c r="U22" s="0" t="n">
+        <f aca="false">VAR(O22:Q22)</f>
+        <v>0.0795613023191748</v>
+      </c>
       <c r="W22" s="0" t="n">
         <v>0.224242424242425</v>
       </c>
@@ -9869,6 +9934,10 @@
         <f aca="false">(MAX(W22-AA22,0)+MAX(X22-AA22,0)+MAX(Y22-AA22,0)+MAX(Z22-AA22,0))/(1-AA22)</f>
         <v>0.334502923976608</v>
       </c>
+      <c r="AC22" s="0" t="n">
+        <f aca="false">VAR(W22:Z22)</f>
+        <v>0.0159312825221915</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -9913,6 +9982,10 @@
         <f aca="false">(MAX(O23-S23,0)+MAX(P23-S23,0)+MAX(Q23-S23,0)+MAX(R23-S23,0))/(1-S23)</f>
         <v>0.309859154929577</v>
       </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">VAR(O23:Q23)</f>
+        <v>0.0228278384389346</v>
+      </c>
       <c r="W23" s="0" t="n">
         <v>0.508620689655172</v>
       </c>
@@ -9933,6 +10006,10 @@
         <f aca="false">(MAX(W23-AA23,0)+MAX(X23-AA23,0)+MAX(Y23-AA23,0)+MAX(Z23-AA23,0))/(1-AA23)</f>
         <v>0.291457286432161</v>
       </c>
+      <c r="AC23" s="0" t="n">
+        <f aca="false">VAR(W23:Z23)</f>
+        <v>0.013988493361078</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -9957,7 +10034,6 @@
         <v>0.100000000000002</v>
       </c>
       <c r="N24" s="0" t="n">
-        <f aca="false">VAR(H24:I24)</f>
         <v>0.00167338296564447</v>
       </c>
       <c r="O24" s="0" t="n">
@@ -9977,6 +10053,10 @@
         <f aca="false">(MAX(O24-S24,0)+MAX(P24-S24,0)+MAX(Q24-S24,0)+MAX(R24-S24,0))/(1-S24)</f>
         <v>0.432835820895522</v>
       </c>
+      <c r="U24" s="0" t="n">
+        <f aca="false">VAR(O24:Q24)</f>
+        <v>0.0514589072774435</v>
+      </c>
       <c r="W24" s="0" t="n">
         <v>0.22265625</v>
       </c>
@@ -9997,6 +10077,10 @@
         <f aca="false">(MAX(W24-AA24,0)+MAX(X24-AA24,0)+MAX(Y24-AA24,0)+MAX(Z24-AA24,0))/(1-AA24)</f>
         <v>0.429022082018927</v>
       </c>
+      <c r="AC24" s="0" t="n">
+        <f aca="false">VAR(W24:Z24)</f>
+        <v>0.0239512125651042</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -10021,7 +10105,6 @@
         <v>0.240105540897097</v>
       </c>
       <c r="N25" s="0" t="n">
-        <f aca="false">VAR(H25:I25)</f>
         <v>0.0221863211591221</v>
       </c>
       <c r="O25" s="0" t="n">
@@ -10041,6 +10124,10 @@
         <f aca="false">(MAX(O25-S25,0)+MAX(P25-S25,0)+MAX(Q25-S25,0)+MAX(R25-S25,0))/(1-S25)</f>
         <v>0.363636363636363</v>
       </c>
+      <c r="U25" s="0" t="n">
+        <f aca="false">VAR(O25:Q25)</f>
+        <v>0.0370815972442091</v>
+      </c>
       <c r="W25" s="0" t="n">
         <v>0.165692007797271</v>
       </c>
@@ -10061,6 +10148,10 @@
         <f aca="false">(MAX(W25-AA25,0)+MAX(X25-AA25,0)+MAX(Y25-AA25,0)+MAX(Z25-AA25,0))/(1-AA25)</f>
         <v>0.617969320672023</v>
       </c>
+      <c r="AC25" s="0" t="n">
+        <f aca="false">VAR(W25:Z25)</f>
+        <v>0.058133430102583</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -10091,6 +10182,10 @@
         <f aca="false">(MAX(O26-S26,0)+MAX(P26-S26,0)+MAX(Q26-S26,0)+MAX(R26-S26,0))/(1-S26)</f>
         <v>0.555555555555555</v>
       </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">VAR(O26:Q26)</f>
+        <v>0.0792588829568001</v>
+      </c>
       <c r="AB26" s="0" t="n">
         <f aca="false">AVERAGE(AB22:AB25)</f>
         <v>0.41823790327493</v>
@@ -10113,6 +10208,10 @@
       <c r="T27" s="0" t="n">
         <f aca="false">(MAX(O27-S27,0)+MAX(P27-S27,0)+MAX(Q27-S27,0)+MAX(R27-S27,0))/(1-S27)</f>
         <v>0.463157894736842</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <f aca="false">VAR(O27:Q27)</f>
+        <v>0.0576548088137364</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10168,6 +10267,10 @@
         <f aca="false">(MAX(O30-S30,0)+MAX(P30-S30,0)+MAX(Q30-S30,0)+MAX(R30-S30,0))/(1-S30)</f>
         <v>0.41751670770313</v>
       </c>
+      <c r="U30" s="0" t="n">
+        <f aca="false">VAR(O30:Q30)</f>
+        <v>0.0444866559434569</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -10216,6 +10319,10 @@
         <f aca="false">(MAX(O31-S31,0)+MAX(P31-S31,0)+MAX(Q31-S31,0)+MAX(R31-S31,0))/(1-S31)</f>
         <v>0.449893390191898</v>
       </c>
+      <c r="U31" s="0" t="n">
+        <f aca="false">VAR(O31:Q31)</f>
+        <v>0.0488130437510695</v>
+      </c>
       <c r="W31" s="0" t="n">
         <v>0.38514891880865</v>
       </c>
@@ -10236,6 +10343,10 @@
         <f aca="false">(MAX(W31-AA31,0)+MAX(X31-AA31,0)+MAX(Y31-AA31,0)+MAX(Z31-AA31,0))/(1-AA31)</f>
         <v>0.320537428023033</v>
       </c>
+      <c r="AC31" s="0" t="n">
+        <f aca="false">VAR(W31:Z31)</f>
+        <v>0.0186770729416377</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -10284,6 +10395,10 @@
         <f aca="false">(MAX(O32-S32,0)+MAX(P32-S32,0)+MAX(Q32-S32,0)+MAX(R32-S32,0))/(1-S32)</f>
         <v>0.239792611795204</v>
       </c>
+      <c r="U32" s="0" t="n">
+        <f aca="false">VAR(O32:Q32)</f>
+        <v>0.0162967756892852</v>
+      </c>
       <c r="W32" s="0" t="n">
         <v>0.61720698254364</v>
       </c>
@@ -10304,6 +10419,10 @@
         <f aca="false">(MAX(W32-AA32,0)+MAX(X32-AA32,0)+MAX(Y32-AA32,0)+MAX(Z32-AA32,0))/(1-AA32)</f>
         <v>0.447593342330184</v>
       </c>
+      <c r="AC32" s="0" t="n">
+        <f aca="false">VAR(W32:Z32)</f>
+        <v>0.0457639929685344</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -10352,6 +10471,10 @@
         <f aca="false">(MAX(O33-S33,0)+MAX(P33-S33,0)+MAX(Q33-S33,0)+MAX(R33-S33,0))/(1-S33)</f>
         <v>0.224770642201834</v>
       </c>
+      <c r="U33" s="0" t="n">
+        <f aca="false">VAR(O33:Q33)</f>
+        <v>0.0116199327030924</v>
+      </c>
       <c r="W33" s="0" t="n">
         <v>0.289222373806276</v>
       </c>
@@ -10372,6 +10495,10 @@
         <f aca="false">(MAX(W33-AA33,0)+MAX(X33-AA33,0)+MAX(Y33-AA33,0)+MAX(Z33-AA33,0))/(1-AA33)</f>
         <v>0.26751592356688</v>
       </c>
+      <c r="AC33" s="0" t="n">
+        <f aca="false">VAR(W33:Z33)</f>
+        <v>0.014378357519572</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -10402,6 +10529,10 @@
         <f aca="false">(MAX(O34-S34,0)+MAX(P34-S34,0)+MAX(Q34-S34,0)+MAX(R34-S34,0))/(1-S34)</f>
         <v>0.125990192380234</v>
       </c>
+      <c r="U34" s="0" t="n">
+        <f aca="false">VAR(O34:Q34)</f>
+        <v>0.00501184405273102</v>
+      </c>
       <c r="W34" s="0" t="n">
         <v>0.409392547217969</v>
       </c>
@@ -10422,6 +10553,10 @@
         <f aca="false">(MAX(W34-AA34,0)+MAX(X34-AA34,0)+MAX(Y34-AA34,0)+MAX(Z34-AA34,0))/(1-AA34)</f>
         <v>0.481763527054109</v>
       </c>
+      <c r="AC34" s="0" t="n">
+        <f aca="false">VAR(W34:Z34)</f>
+        <v>0.0456396280288365</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O35" s="0" t="n">
@@ -10440,6 +10575,10 @@
       <c r="T35" s="0" t="n">
         <f aca="false">(MAX(O35-S35,0)+MAX(P35-S35,0)+MAX(Q35-S35,0)+MAX(R35-S35,0))/(1-S35)</f>
         <v>0.411825726141078</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <f aca="false">VAR(O35:Q35)</f>
+        <v>0.039391937767218</v>
       </c>
       <c r="AB35" s="0" t="n">
         <f aca="false">AVERAGE(AB31:AB34)</f>
@@ -10527,6 +10666,10 @@
         <f aca="false">(MAX(O38-S38,0)+MAX(P38-S38,0)+MAX(Q38-S38,0)+MAX(R38-S38,0))/(1-S38)</f>
         <v>0.54637436762226</v>
       </c>
+      <c r="U38" s="0" t="n">
+        <f aca="false">VAR(O38:Q38)</f>
+        <v>0.0802389922518323</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -10575,6 +10718,10 @@
         <f aca="false">(MAX(O39-S39,0)+MAX(P39-S39,0)+MAX(Q39-S39,0)+MAX(R39-S39,0))/(1-S39)</f>
         <v>0.308580858085809</v>
       </c>
+      <c r="U39" s="0" t="n">
+        <f aca="false">VAR(O39:Q39)</f>
+        <v>0.0313847382061421</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -10623,6 +10770,10 @@
         <f aca="false">(MAX(O40-S40,0)+MAX(P40-S40,0)+MAX(Q40-S40,0)+MAX(R40-S40,0))/(1-S40)</f>
         <v>0.117318435754191</v>
       </c>
+      <c r="U40" s="0" t="n">
+        <f aca="false">VAR(O40:Q40)</f>
+        <v>0.00373199409746928</v>
+      </c>
       <c r="W40" s="0" t="n">
         <v>0.262672811059908</v>
       </c>
@@ -10643,6 +10794,10 @@
         <f aca="false">(MAX(W40-AA40,0)+MAX(X40-AA40,0)+MAX(Y40-AA40,0)+MAX(Z40-AA40,0))/(1-AA40)</f>
         <v>0.501278046009656</v>
       </c>
+      <c r="AC40" s="0" t="n">
+        <f aca="false">VAR(W40:Z40)</f>
+        <v>0.0401157787330778</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -10673,6 +10828,10 @@
         <f aca="false">(MAX(O41-S41,0)+MAX(P41-S41,0)+MAX(Q41-S41,0)+MAX(R41-S41,0))/(1-S41)</f>
         <v>0.411764705882353</v>
       </c>
+      <c r="U41" s="0" t="n">
+        <f aca="false">VAR(O41:Q41)</f>
+        <v>0.0387184709274658</v>
+      </c>
       <c r="W41" s="0" t="n">
         <v>0.566279069767442</v>
       </c>
@@ -10693,6 +10852,10 @@
         <f aca="false">(MAX(W41-AA41,0)+MAX(X41-AA41,0)+MAX(Y41-AA41,0)+MAX(Z41-AA41,0))/(1-AA41)</f>
         <v>0.367260390161154</v>
       </c>
+      <c r="AC41" s="0" t="n">
+        <f aca="false">VAR(W41:Z41)</f>
+        <v>0.029266720749955</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -10715,6 +10878,10 @@
         <f aca="false">(MAX(O42-S42,0)+MAX(P42-S42,0)+MAX(Q42-S42,0)+MAX(R42-S42,0))/(1-S42)</f>
         <v>0.154897494305239</v>
       </c>
+      <c r="U42" s="0" t="n">
+        <f aca="false">VAR(O42:Q42)</f>
+        <v>0.00629899521218241</v>
+      </c>
       <c r="W42" s="0" t="n">
         <v>0.579302587176603</v>
       </c>
@@ -10735,6 +10902,10 @@
         <f aca="false">(MAX(W42-AA42,0)+MAX(X42-AA42,0)+MAX(Y42-AA42,0)+MAX(Z42-AA42,0))/(1-AA42)</f>
         <v>0.501165501165501</v>
       </c>
+      <c r="AC42" s="0" t="n">
+        <f aca="false">VAR(W42:Z42)</f>
+        <v>0.0440263091410537</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O43" s="0" t="n">
@@ -10754,6 +10925,10 @@
         <f aca="false">(MAX(O43-S43,0)+MAX(P43-S43,0)+MAX(Q43-S43,0)+MAX(R43-S43,0))/(1-S43)</f>
         <v>0.51808510638298</v>
       </c>
+      <c r="U43" s="0" t="n">
+        <f aca="false">VAR(O43:Q43)</f>
+        <v>0.0718768553097771</v>
+      </c>
       <c r="W43" s="0" t="n">
         <v>0.492202729044834</v>
       </c>
@@ -10773,6 +10948,10 @@
       <c r="AB43" s="0" t="n">
         <f aca="false">(MAX(W43-AA43,0)+MAX(X43-AA43,0)+MAX(Y43-AA43,0)+MAX(Z43-AA43,0))/(1-AA43)</f>
         <v>0.437378072571205</v>
+      </c>
+      <c r="AC43" s="0" t="n">
+        <f aca="false">VAR(W43:Z43)</f>
+        <v>0.0358846565008289</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10808,42 +10987,39 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>20</v>
